--- a/RezultateExperimente.xlsx
+++ b/RezultateExperimente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coste\Desktop\APD\PrezentareFinalaAPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929C254B-BAE5-4DBA-8175-496E851B28F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634B0862-FCDE-4EEB-9B3B-72D286DB98A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>Numar Elemente Test</t>
   </si>
   <si>
-    <t>Rezultat secvential</t>
+    <t>Rezultat Varainta Seccventiala (secunde)</t>
   </si>
 </sst>
 </file>
@@ -348,16 +348,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -368,6 +368,70 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>3.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>3.7009999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>3.9397000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>100000</v>
+      </c>
+      <c r="B7">
+        <v>0.39416299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1000000</v>
+      </c>
+      <c r="B8">
+        <v>3.9224999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000000</v>
+      </c>
+      <c r="B9">
+        <v>41.0548</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RezultateExperimente.xlsx
+++ b/RezultateExperimente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coste\Desktop\APD\PrezentareFinalaAPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634B0862-FCDE-4EEB-9B3B-72D286DB98A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB6633-E7EA-4A5B-88DC-C6AAB3E1370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6924" yWindow="984" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Numar Elemente Test</t>
   </si>
   <si>
-    <t>Rezultat Varainta Seccventiala (secunde)</t>
+    <t>Rezultat Varainta Secventiala (secunde)</t>
+  </si>
+  <si>
+    <t>Rezultat Varianta Paralela OpenMP (secunde)</t>
   </si>
 </sst>
 </file>
@@ -348,88 +351,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>4.169E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2.813E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
       <c r="B4">
         <v>3.2000000000000003E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3.5639999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
       <c r="B5">
         <v>3.7009999999999999E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>7.0980000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
       <c r="B6">
         <v>3.9397000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>4.8779000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100000</v>
       </c>
       <c r="B7">
         <v>0.39416299999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0.385245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1000000</v>
       </c>
       <c r="B8">
         <v>3.9224999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>3.7158000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000000</v>
       </c>
       <c r="B9">
         <v>41.0548</v>
+      </c>
+      <c r="C9">
+        <v>37.874899999999997</v>
       </c>
     </row>
   </sheetData>

--- a/RezultateExperimente.xlsx
+++ b/RezultateExperimente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coste\Desktop\APD\PrezentareFinalaAPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB6633-E7EA-4A5B-88DC-C6AAB3E1370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE26CB8B-8095-4923-8F4D-F19429B8E2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6924" yWindow="984" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Numar Elemente Test</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Rezultat Varianta Paralela OpenMP (secunde)</t>
+  </si>
+  <si>
+    <t>Rezultat Varianta Paralela MPI (secunde)</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,9 +365,10 @@
     <col min="1" max="1" width="22.77734375" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -374,8 +378,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5</v>
       </c>
@@ -385,8 +392,11 @@
       <c r="C2">
         <v>4.169E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -396,8 +406,11 @@
       <c r="C3">
         <v>2.813E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -407,8 +420,11 @@
       <c r="C4">
         <v>3.5639999999999999E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>5.6899999999999995E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -418,8 +434,11 @@
       <c r="C5">
         <v>7.0980000000000001E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1.415E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10000</v>
       </c>
@@ -429,8 +448,11 @@
       <c r="C6">
         <v>4.8779000000000003E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1.2609E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100000</v>
       </c>
@@ -440,8 +462,11 @@
       <c r="C7">
         <v>0.385245</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0.12992300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1000000</v>
       </c>
@@ -451,8 +476,11 @@
       <c r="C8">
         <v>3.7158000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1.34822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10000000</v>
       </c>
@@ -461,6 +489,9 @@
       </c>
       <c r="C9">
         <v>37.874899999999997</v>
+      </c>
+      <c r="D9">
+        <v>20.5503</v>
       </c>
     </row>
   </sheetData>

--- a/RezultateExperimente.xlsx
+++ b/RezultateExperimente.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coste\Desktop\APD\PrezentareFinalaAPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE26CB8B-8095-4923-8F4D-F19429B8E2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45283CC-1914-4C96-BDC2-25BA8404450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -89,6 +95,1159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Secvential</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7009999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9397000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39416299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9224999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.0548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D048-4A12-8C89-9651D37A0D11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OpenMP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.169E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.813E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5639999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0980000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8779000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.385245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7158000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.874899999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D048-4A12-8C89-9651D37A0D11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MPI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6899999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.415E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2609E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12992300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.34822</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.5503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D048-4A12-8C89-9651D37A0D11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="367999328"/>
+        <c:axId val="458381408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="367999328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458381408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458381408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Numar</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> elemente</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367999328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1135380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E9A5E1-DD09-DDB9-7976-55D49103E4EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,5 +1655,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>